--- a/Project_CostRanger/Assets/05.Data/DataTable/RecruitmentRegularData.xlsx
+++ b/Project_CostRanger/Assets/05.Data/DataTable/RecruitmentRegularData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USERA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강산\Desktop\UnityProject\Project_CostRanger\Project_CostRanger\Assets\05.Data\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF007C-AC17-4A3A-BD5B-D89B8211AEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="globalData" sheetId="2" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>pickupProbability</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,14 +193,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -208,16 +209,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -520,43 +515,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
     <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="5" width="20.875" customWidth="1"/>
+    <col min="3" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -583,36 +578,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="4" max="6" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>111010</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -621,9 +616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>2</v>
+        <v>111020</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -632,9 +627,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3</v>
+        <v>112020</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -643,9 +638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>4</v>
+        <v>121010</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -653,306 +648,71 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>5</v>
+        <v>111040</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>6</v>
+        <v>121020</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>7</v>
+        <v>111030</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>8</v>
+        <v>112010</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>9</v>
+        <v>122010</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
